--- a/drag_buildup_flap_sizing/derivatives/DragBuildUp_flapsizing.xlsx
+++ b/drag_buildup_flap_sizing/derivatives/DragBuildUp_flapsizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tysonc/Documents/GitHub/443_design_problem/drag_buildup_flap_sizing/derivatives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E726DC-B036-304D-9921-F3E1623A22E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33365EDD-5555-6A49-A7F4-643C3DD6A822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34480" windowHeight="21580" xr2:uid="{FADF4127-3137-4FB6-88FA-242C48EF07EE}"/>
   </bookViews>
@@ -1315,8 +1315,8 @@
   <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="3" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2739,8 +2739,8 @@
         <v>154</v>
       </c>
       <c r="C110" s="1">
-        <f>C111/C108</f>
-        <v>0.31097560975609756</v>
+        <f>C111^2/C108</f>
+        <v>3.9649390243902438</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>52</v>
